--- a/WY_2026/20260222report_table1.xlsx
+++ b/WY_2026/20260222report_table1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\paperwork\0_UCSB_DWR_Project\2026_RT_Reports\20260222_RT_report\ASO_BiasCorrect_RT_CanAdj_rcn_wCCR_nofscamskSens_UseThis\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\SWE\Sierras\paperwork\0_UCSB_DWR_Project\2026_RT_Reports\20260222_RT_report\ASO_BiasCorrect_RT_CanAdj_rcn_wCCR_nofscamskSens_UseThis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6398EB-20A8-4EE5-8D44-03DD4426EEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C99EA8-161C-4832-BCD6-7BAA40AA62CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{907A730D-6B46-42BF-B8E6-A6DD1C302FF5}"/>
   </bookViews>
@@ -1140,13 +1140,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB248979-B925-4A17-B25E-A002F0643116}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="28.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" customWidth="1"/>
+    <col min="11" max="11" width="11.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
